--- a/targets/RVE_1_40_D/DB/linear_uniaxial_RD/DB1.xlsx
+++ b/targets/RVE_1_40_D/DB/linear_uniaxial_RD/DB1.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nguye\Desktop\Crystal-Plasticity-Journal-Project\targets\RVE_1_40_D\PH\linear_uniaxial_RD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B9BC5D1-FC9C-48B5-BDF1-7727D0172ADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85D5CA31-562E-4365-8137-406486E01976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Experimental" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,16 +39,16 @@
     <t>exp_strain</t>
   </si>
   <si>
+    <t>exp_stress (MPa)</t>
+  </si>
+  <si>
+    <t>exp_stress (Pa)</t>
+  </si>
+  <si>
     <t>fitted_strain</t>
   </si>
   <si>
     <t>fitted_stress (MPa)</t>
-  </si>
-  <si>
-    <t>exp_stress (MPa)</t>
-  </si>
-  <si>
-    <t>exp_stress (Pa)</t>
   </si>
   <si>
     <t>fitted_stress (Pa)</t>
@@ -428,7 +428,7 @@
   <dimension ref="A1:F312"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -436,7 +436,7 @@
     <col min="1" max="1" width="11.5546875" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="15.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="16.77734375" style="5" customWidth="1"/>
+    <col min="5" max="6" width="16.6640625" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -444,16 +444,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>2</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>5</v>
@@ -467,7 +467,6 @@
         <v>7.6345131799999999</v>
       </c>
       <c r="C2" s="2">
-        <f>B2*1000000</f>
         <v>7634513.1799999997</v>
       </c>
       <c r="D2" s="2">
@@ -477,7 +476,6 @@
         <v>128.02631614399701</v>
       </c>
       <c r="F2" s="2">
-        <f>E2 * 1000000</f>
         <v>128026316.14399701</v>
       </c>
     </row>
@@ -489,7 +487,6 @@
         <v>7.21928313</v>
       </c>
       <c r="C3" s="2">
-        <f t="shared" ref="C3:C66" si="0">B3*1000000</f>
         <v>7219283.1299999999</v>
       </c>
       <c r="D3" s="2">
@@ -499,7 +496,6 @@
         <v>132.14737743738101</v>
       </c>
       <c r="F3" s="2">
-        <f t="shared" ref="F3:F66" si="1">E3 * 1000000</f>
         <v>132147377.43738101</v>
       </c>
     </row>
@@ -511,7 +507,6 @@
         <v>2.2368515900000001</v>
       </c>
       <c r="C4" s="2">
-        <f t="shared" si="0"/>
         <v>2236851.5900000003</v>
       </c>
       <c r="D4" s="2">
@@ -521,7 +516,6 @@
         <v>136.165805213531</v>
       </c>
       <c r="F4" s="2">
-        <f t="shared" si="1"/>
         <v>136165805.21353099</v>
       </c>
     </row>
@@ -533,7 +527,6 @@
         <v>6.38890022</v>
       </c>
       <c r="C5" s="2">
-        <f t="shared" si="0"/>
         <v>6388900.2199999997</v>
       </c>
       <c r="D5" s="2">
@@ -543,7 +536,6 @@
         <v>140.08415552248101</v>
       </c>
       <c r="F5" s="2">
-        <f t="shared" si="1"/>
         <v>140084155.52248102</v>
       </c>
     </row>
@@ -555,7 +547,6 @@
         <v>21.340538299999999</v>
       </c>
       <c r="C6" s="2">
-        <f t="shared" si="0"/>
         <v>21340538.299999997</v>
       </c>
       <c r="D6" s="2">
@@ -565,7 +556,6 @@
         <v>143.90492075677901</v>
       </c>
       <c r="F6" s="2">
-        <f t="shared" si="1"/>
         <v>143904920.75677902</v>
       </c>
     </row>
@@ -577,7 +567,6 @@
         <v>37.960891400000001</v>
       </c>
       <c r="C7" s="2">
-        <f t="shared" si="0"/>
         <v>37960891.399999999</v>
       </c>
       <c r="D7" s="2">
@@ -587,7 +576,6 @@
         <v>147.630531236851</v>
       </c>
       <c r="F7" s="2">
-        <f t="shared" si="1"/>
         <v>147630531.23685101</v>
       </c>
     </row>
@@ -599,7 +587,6 @@
         <v>50.849115699999999</v>
       </c>
       <c r="C8" s="2">
-        <f t="shared" si="0"/>
         <v>50849115.699999996</v>
       </c>
       <c r="D8" s="2">
@@ -609,7 +596,6 @@
         <v>151.263356756886</v>
       </c>
       <c r="F8" s="2">
-        <f t="shared" si="1"/>
         <v>151263356.75688601</v>
       </c>
     </row>
@@ -621,7 +607,6 @@
         <v>63.744323399999999</v>
       </c>
       <c r="C9" s="2">
-        <f t="shared" si="0"/>
         <v>63744323.399999999</v>
       </c>
       <c r="D9" s="2">
@@ -631,7 +616,6 @@
         <v>154.80570809222101</v>
       </c>
       <c r="F9" s="2">
-        <f t="shared" si="1"/>
         <v>154805708.09222102</v>
       </c>
     </row>
@@ -643,7 +627,6 @@
         <v>73.320155700000001</v>
       </c>
       <c r="C10" s="2">
-        <f t="shared" si="0"/>
         <v>73320155.700000003</v>
       </c>
       <c r="D10" s="2">
@@ -653,7 +636,6 @@
         <v>158.25983846918101</v>
       </c>
       <c r="F10" s="2">
-        <f t="shared" si="1"/>
         <v>158259838.469181</v>
       </c>
     </row>
@@ -665,7 +647,6 @@
         <v>87.890374199999997</v>
       </c>
       <c r="C11" s="2">
-        <f t="shared" si="0"/>
         <v>87890374.200000003</v>
       </c>
       <c r="D11" s="2">
@@ -675,7 +656,6 @@
         <v>161.62794499831699</v>
       </c>
       <c r="F11" s="2">
-        <f t="shared" si="1"/>
         <v>161627944.998317</v>
       </c>
     </row>
@@ -687,7 +667,6 @@
         <v>95.817217299999996</v>
       </c>
       <c r="C12" s="2">
-        <f t="shared" si="0"/>
         <v>95817217.299999997</v>
       </c>
       <c r="D12" s="2">
@@ -697,7 +676,6 @@
         <v>164.91217007195101</v>
       </c>
       <c r="F12" s="2">
-        <f t="shared" si="1"/>
         <v>164912170.071951</v>
       </c>
     </row>
@@ -709,7 +687,6 @@
         <v>122.8934945</v>
       </c>
       <c r="C13" s="2">
-        <f t="shared" si="0"/>
         <v>122893494.5</v>
       </c>
       <c r="D13" s="2">
@@ -719,7 +696,6 @@
         <v>168.11460272690999</v>
       </c>
       <c r="F13" s="2">
-        <f t="shared" si="1"/>
         <v>168114602.72691</v>
       </c>
     </row>
@@ -731,7 +707,6 @@
         <v>126.4103147</v>
       </c>
       <c r="C14" s="2">
-        <f t="shared" si="0"/>
         <v>126410314.7</v>
       </c>
       <c r="D14" s="2">
@@ -741,7 +716,6 @@
         <v>171.237279973325</v>
       </c>
       <c r="F14" s="2">
-        <f t="shared" si="1"/>
         <v>171237279.97332501</v>
       </c>
     </row>
@@ -753,7 +727,6 @@
         <v>130.5086862</v>
       </c>
       <c r="C15" s="2">
-        <f t="shared" si="0"/>
         <v>130508686.2</v>
       </c>
       <c r="D15" s="2">
@@ -763,7 +736,6 @@
         <v>174.282188090342</v>
       </c>
       <c r="F15" s="2">
-        <f t="shared" si="1"/>
         <v>174282188.09034202</v>
       </c>
     </row>
@@ -775,7 +747,6 @@
         <v>129.85346620000001</v>
       </c>
       <c r="C16" s="2">
-        <f t="shared" si="0"/>
         <v>129853466.20000002</v>
       </c>
       <c r="D16" s="2">
@@ -785,7 +756,6 @@
         <v>177.25126388955101</v>
       </c>
       <c r="F16" s="2">
-        <f t="shared" si="1"/>
         <v>177251263.88955101</v>
       </c>
     </row>
@@ -797,7 +767,6 @@
         <v>131.06458810000001</v>
       </c>
       <c r="C17" s="2">
-        <f t="shared" si="0"/>
         <v>131064588.10000001</v>
       </c>
       <c r="D17" s="2">
@@ -807,7 +776,6 @@
         <v>180.146395946963</v>
       </c>
       <c r="F17" s="2">
-        <f t="shared" si="1"/>
         <v>180146395.94696298</v>
       </c>
     </row>
@@ -819,7 +787,6 @@
         <v>130.41746230000001</v>
       </c>
       <c r="C18" s="2">
-        <f t="shared" si="0"/>
         <v>130417462.30000001</v>
       </c>
       <c r="D18" s="2">
@@ -829,7 +796,6 @@
         <v>182.969425804298</v>
       </c>
       <c r="F18" s="2">
-        <f t="shared" si="1"/>
         <v>182969425.80429798</v>
       </c>
     </row>
@@ -841,7 +807,6 @@
         <v>130.97014970000001</v>
       </c>
       <c r="C19" s="2">
-        <f t="shared" si="0"/>
         <v>130970149.7</v>
       </c>
       <c r="D19" s="2">
@@ -851,7 +816,6 @@
         <v>185.722149140353</v>
       </c>
       <c r="F19" s="2">
-        <f t="shared" si="1"/>
         <v>185722149.14035299</v>
       </c>
     </row>
@@ -863,7 +827,6 @@
         <v>134.0954328</v>
       </c>
       <c r="C20" s="2">
-        <f t="shared" si="0"/>
         <v>134095432.8</v>
       </c>
       <c r="D20" s="2">
@@ -873,7 +836,6 @@
         <v>188.40631691320701</v>
       </c>
       <c r="F20" s="2">
-        <f t="shared" si="1"/>
         <v>188406316.91320699</v>
       </c>
     </row>
@@ -885,7 +847,6 @@
         <v>132.62129469999999</v>
       </c>
       <c r="C21" s="2">
-        <f t="shared" si="0"/>
         <v>132621294.69999999</v>
       </c>
       <c r="D21" s="2">
@@ -895,7 +856,6 @@
         <v>191.023636473972</v>
       </c>
       <c r="F21" s="2">
-        <f t="shared" si="1"/>
         <v>191023636.47397199</v>
       </c>
     </row>
@@ -907,7 +867,6 @@
         <v>130.80583419999999</v>
       </c>
       <c r="C22" s="2">
-        <f t="shared" si="0"/>
         <v>130805834.19999999</v>
       </c>
       <c r="D22" s="2">
@@ -917,7 +876,6 @@
         <v>193.57577265280699</v>
       </c>
       <c r="F22" s="2">
-        <f t="shared" si="1"/>
         <v>193575772.652807</v>
       </c>
     </row>
@@ -929,7 +887,6 @@
         <v>129.70244880000001</v>
       </c>
       <c r="C23" s="2">
-        <f t="shared" si="0"/>
         <v>129702448.80000001</v>
       </c>
       <c r="D23" s="2">
@@ -939,7 +896,6 @@
         <v>196.06434881788601</v>
       </c>
       <c r="F23" s="2">
-        <f t="shared" si="1"/>
         <v>196064348.81788602</v>
       </c>
     </row>
@@ -951,7 +907,6 @@
         <v>132.34303919999999</v>
       </c>
       <c r="C24" s="2">
-        <f t="shared" si="0"/>
         <v>132343039.19999999</v>
       </c>
       <c r="D24" s="2">
@@ -961,7 +916,6 @@
         <v>198.490947907997</v>
       </c>
       <c r="F24" s="2">
-        <f t="shared" si="1"/>
         <v>198490947.90799698</v>
       </c>
     </row>
@@ -973,7 +927,6 @@
         <v>134.91757490000001</v>
       </c>
       <c r="C25" s="2">
-        <f t="shared" si="0"/>
         <v>134917574.90000001</v>
       </c>
       <c r="D25" s="2">
@@ -983,7 +936,6 @@
         <v>200.85711343941799</v>
       </c>
       <c r="F25" s="2">
-        <f t="shared" si="1"/>
         <v>200857113.43941799</v>
       </c>
     </row>
@@ -995,7 +947,6 @@
         <v>134.0699319</v>
       </c>
       <c r="C26" s="2">
-        <f t="shared" si="0"/>
         <v>134069931.90000001</v>
       </c>
       <c r="D26" s="2">
@@ -1005,7 +956,6 @@
         <v>203.16435048772399</v>
       </c>
       <c r="F26" s="2">
-        <f t="shared" si="1"/>
         <v>203164350.48772401</v>
       </c>
     </row>
@@ -1017,7 +967,6 @@
         <v>135.09342770000001</v>
       </c>
       <c r="C27" s="2">
-        <f t="shared" si="0"/>
         <v>135093427.70000002</v>
       </c>
       <c r="D27" s="2">
@@ -1027,7 +976,6 @@
         <v>205.414126645132</v>
       </c>
       <c r="F27" s="2">
-        <f t="shared" si="1"/>
         <v>205414126.64513201</v>
       </c>
     </row>
@@ -1039,7 +987,6 @@
         <v>135.09973729999999</v>
       </c>
       <c r="C28" s="2">
-        <f t="shared" si="0"/>
         <v>135099737.29999998</v>
       </c>
       <c r="D28" s="2">
@@ -1049,7 +996,6 @@
         <v>207.60787295401701</v>
       </c>
       <c r="F28" s="2">
-        <f t="shared" si="1"/>
         <v>207607872.95401701</v>
       </c>
     </row>
@@ -1061,7 +1007,6 @@
         <v>139.18611609999999</v>
       </c>
       <c r="C29" s="2">
-        <f t="shared" si="0"/>
         <v>139186116.09999999</v>
       </c>
       <c r="D29" s="2">
@@ -1071,7 +1016,6 @@
         <v>209.746984817168</v>
       </c>
       <c r="F29" s="2">
-        <f t="shared" si="1"/>
         <v>209746984.817168</v>
       </c>
     </row>
@@ -1083,7 +1027,6 @@
         <v>138.53407569999999</v>
       </c>
       <c r="C30" s="2">
-        <f t="shared" si="0"/>
         <v>138534075.69999999</v>
       </c>
       <c r="D30" s="2">
@@ -1093,7 +1036,6 @@
         <v>211.83282288538001</v>
       </c>
       <c r="F30" s="2">
-        <f t="shared" si="1"/>
         <v>211832822.88538</v>
       </c>
     </row>
@@ -1105,7 +1047,6 @@
         <v>138.77827350000001</v>
       </c>
       <c r="C31" s="2">
-        <f t="shared" si="0"/>
         <v>138778273.5</v>
       </c>
       <c r="D31" s="2">
@@ -1115,7 +1056,6 @@
         <v>213.86671392294201</v>
       </c>
       <c r="F31" s="2">
-        <f t="shared" si="1"/>
         <v>213866713.92294201</v>
       </c>
     </row>
@@ -1127,7 +1067,6 @@
         <v>137.3079989</v>
       </c>
       <c r="C32" s="2">
-        <f t="shared" si="0"/>
         <v>137307998.90000001</v>
       </c>
       <c r="D32" s="2">
@@ -1137,7 +1076,6 @@
         <v>215.849951651563</v>
       </c>
       <c r="F32" s="2">
-        <f t="shared" si="1"/>
         <v>215849951.65156299</v>
       </c>
     </row>
@@ -1149,7 +1087,6 @@
         <v>142.09664119999999</v>
       </c>
       <c r="C33" s="2">
-        <f t="shared" si="0"/>
         <v>142096641.19999999</v>
       </c>
       <c r="D33" s="2">
@@ -1159,7 +1096,6 @@
         <v>217.783797573291</v>
       </c>
       <c r="F33" s="2">
-        <f t="shared" si="1"/>
         <v>217783797.573291</v>
       </c>
     </row>
@@ -1171,7 +1107,6 @@
         <v>138.03691420000001</v>
       </c>
       <c r="C34" s="2">
-        <f t="shared" si="0"/>
         <v>138036914.20000002</v>
       </c>
       <c r="D34" s="2">
@@ -1181,7 +1116,6 @@
         <v>219.66948177292599</v>
       </c>
       <c r="F34" s="2">
-        <f t="shared" si="1"/>
         <v>219669481.772926</v>
       </c>
     </row>
@@ -1193,7 +1127,6 @@
         <v>140.01167459999999</v>
       </c>
       <c r="C35" s="2">
-        <f t="shared" si="0"/>
         <v>140011674.59999999</v>
       </c>
       <c r="D35" s="2">
@@ -1203,7 +1136,6 @@
         <v>221.508203700461</v>
       </c>
       <c r="F35" s="2">
-        <f t="shared" si="1"/>
         <v>221508203.700461</v>
       </c>
     </row>
@@ -1215,7 +1147,6 @@
         <v>141.45064970000001</v>
       </c>
       <c r="C36" s="2">
-        <f t="shared" si="0"/>
         <v>141450649.70000002</v>
       </c>
       <c r="D36" s="2">
@@ -1225,7 +1156,6 @@
         <v>223.30113293402701</v>
       </c>
       <c r="F36" s="2">
-        <f t="shared" si="1"/>
         <v>223301132.93402702</v>
       </c>
     </row>
@@ -1237,7 +1167,6 @@
         <v>143.33307859999999</v>
       </c>
       <c r="C37" s="2">
-        <f t="shared" si="0"/>
         <v>143333078.59999999</v>
       </c>
       <c r="D37" s="2">
@@ -1247,7 +1176,6 @@
         <v>225.04940992383999</v>
       </c>
       <c r="F37" s="2">
-        <f t="shared" si="1"/>
         <v>225049409.92383999</v>
       </c>
     </row>
@@ -1259,7 +1187,6 @@
         <v>143.67957200000001</v>
       </c>
       <c r="C38" s="2">
-        <f t="shared" si="0"/>
         <v>143679572</v>
       </c>
       <c r="D38" s="2">
@@ -1269,7 +1196,6 @@
         <v>226.754146717623</v>
       </c>
       <c r="F38" s="2">
-        <f t="shared" si="1"/>
         <v>226754146.717623</v>
       </c>
     </row>
@@ -1281,7 +1207,6 @@
         <v>140.61206709999999</v>
       </c>
       <c r="C39" s="2">
-        <f t="shared" si="0"/>
         <v>140612067.09999999</v>
       </c>
       <c r="D39" s="2">
@@ -1291,7 +1216,6 @@
         <v>228.41642766795999</v>
       </c>
       <c r="F39" s="2">
-        <f t="shared" si="1"/>
         <v>228416427.66795999</v>
       </c>
     </row>
@@ -1303,7 +1227,6 @@
         <v>145.05454159999999</v>
       </c>
       <c r="C40" s="2">
-        <f t="shared" si="0"/>
         <v>145054541.59999999</v>
       </c>
       <c r="D40" s="2">
@@ -1313,7 +1236,6 @@
         <v>230.03731012203099</v>
       </c>
       <c r="F40" s="2">
-        <f t="shared" si="1"/>
         <v>230037310.12203097</v>
       </c>
     </row>
@@ -1325,7 +1247,6 @@
         <v>144.03849790000001</v>
       </c>
       <c r="C41" s="2">
-        <f t="shared" si="0"/>
         <v>144038497.90000001</v>
       </c>
       <c r="D41" s="2">
@@ -1335,7 +1256,6 @@
         <v>231.617825094175</v>
       </c>
       <c r="F41" s="2">
-        <f t="shared" si="1"/>
         <v>231617825.09417501</v>
       </c>
     </row>
@@ -1347,7 +1267,6 @@
         <v>143.0828123</v>
       </c>
       <c r="C42" s="2">
-        <f t="shared" si="0"/>
         <v>143082812.30000001</v>
       </c>
       <c r="D42" s="2">
@@ -1357,7 +1276,6 @@
         <v>233.158977921695</v>
       </c>
       <c r="F42" s="2">
-        <f t="shared" si="1"/>
         <v>233158977.92169499</v>
       </c>
     </row>
@@ -1369,7 +1287,6 @@
         <v>146.06885539999999</v>
       </c>
       <c r="C43" s="2">
-        <f t="shared" si="0"/>
         <v>146068855.39999998</v>
       </c>
       <c r="D43" s="2">
@@ -1379,7 +1296,6 @@
         <v>234.66174890433999</v>
       </c>
       <c r="F43" s="2">
-        <f t="shared" si="1"/>
         <v>234661748.90434</v>
       </c>
     </row>
@@ -1391,7 +1307,6 @@
         <v>148.5267106</v>
       </c>
       <c r="C44" s="2">
-        <f t="shared" si="0"/>
         <v>148526710.59999999</v>
       </c>
       <c r="D44" s="2">
@@ -1401,7 +1316,6 @@
         <v>236.127093927852</v>
       </c>
       <c r="F44" s="2">
-        <f t="shared" si="1"/>
         <v>236127093.927852</v>
       </c>
     </row>
@@ -1413,7 +1327,6 @@
         <v>148.44726510000001</v>
       </c>
       <c r="C45" s="2">
-        <f t="shared" si="0"/>
         <v>148447265.10000002</v>
       </c>
       <c r="D45" s="2">
@@ -1423,7 +1336,6 @@
         <v>237.55594507199399</v>
       </c>
       <c r="F45" s="2">
-        <f t="shared" si="1"/>
         <v>237555945.07199398</v>
       </c>
     </row>
@@ -1435,7 +1347,6 @@
         <v>149.53133339999999</v>
       </c>
       <c r="C46" s="2">
-        <f t="shared" si="0"/>
         <v>149531333.40000001</v>
       </c>
       <c r="D46" s="2">
@@ -1445,7 +1356,6 @@
         <v>238.949211203419</v>
       </c>
       <c r="F46" s="2">
-        <f t="shared" si="1"/>
         <v>238949211.203419</v>
       </c>
     </row>
@@ -1457,7 +1367,6 @@
         <v>149.53862789999999</v>
       </c>
       <c r="C47" s="2">
-        <f t="shared" si="0"/>
         <v>149538627.90000001</v>
       </c>
       <c r="D47" s="2">
@@ -1467,7 +1376,6 @@
         <v>240.307778553795</v>
       </c>
       <c r="F47" s="2">
-        <f t="shared" si="1"/>
         <v>240307778.55379501</v>
       </c>
     </row>
@@ -1479,7 +1387,6 @@
         <v>150.80639790000001</v>
       </c>
       <c r="C48" s="2">
-        <f t="shared" si="0"/>
         <v>150806397.90000001</v>
       </c>
       <c r="D48" s="2">
@@ -1489,7 +1396,6 @@
         <v>241.632511283513</v>
       </c>
       <c r="F48" s="2">
-        <f t="shared" si="1"/>
         <v>241632511.28351301</v>
       </c>
     </row>
@@ -1501,7 +1407,6 @@
         <v>148.7787572</v>
       </c>
       <c r="C49" s="2">
-        <f t="shared" si="0"/>
         <v>148778757.19999999</v>
       </c>
       <c r="D49" s="2">
@@ -1511,7 +1416,6 @@
         <v>242.92425203136801</v>
       </c>
       <c r="F49" s="2">
-        <f t="shared" si="1"/>
         <v>242924252.03136802</v>
       </c>
     </row>
@@ -1523,7 +1427,6 @@
         <v>146.57326599999999</v>
       </c>
       <c r="C50" s="2">
-        <f t="shared" si="0"/>
         <v>146573266</v>
       </c>
       <c r="D50" s="2">
@@ -1533,7 +1436,6 @@
         <v>244.18382245054701</v>
       </c>
       <c r="F50" s="2">
-        <f t="shared" si="1"/>
         <v>244183822.45054701</v>
       </c>
     </row>
@@ -1545,7 +1447,6 @@
         <v>147.73893899999999</v>
       </c>
       <c r="C51" s="2">
-        <f t="shared" si="0"/>
         <v>147738939</v>
       </c>
       <c r="D51" s="2">
@@ -1555,7 +1456,6 @@
         <v>245.41202373126299</v>
       </c>
       <c r="F51" s="2">
-        <f t="shared" si="1"/>
         <v>245412023.73126298</v>
       </c>
     </row>
@@ -1567,7 +1467,6 @@
         <v>143.08982900000001</v>
       </c>
       <c r="C52" s="2">
-        <f t="shared" si="0"/>
         <v>143089829</v>
       </c>
       <c r="D52" s="2">
@@ -1577,7 +1476,6 @@
         <v>246.60963711038301</v>
       </c>
       <c r="F52" s="2">
-        <f t="shared" si="1"/>
         <v>246609637.110383</v>
       </c>
     </row>
@@ -1589,7 +1487,6 @@
         <v>147.74976100000001</v>
       </c>
       <c r="C53" s="2">
-        <f t="shared" si="0"/>
         <v>147749761</v>
       </c>
       <c r="D53" s="2">
@@ -1599,7 +1496,6 @@
         <v>247.777424368357</v>
       </c>
       <c r="F53" s="2">
-        <f t="shared" si="1"/>
         <v>247777424.368357</v>
       </c>
     </row>
@@ -1611,7 +1507,6 @@
         <v>146.26012299999999</v>
       </c>
       <c r="C54" s="2">
-        <f t="shared" si="0"/>
         <v>146260123</v>
       </c>
       <c r="D54" s="2">
@@ -1621,7 +1516,6 @@
         <v>248.91612831377401</v>
       </c>
       <c r="F54" s="2">
-        <f t="shared" si="1"/>
         <v>248916128.31377402</v>
       </c>
     </row>
@@ -1633,7 +1527,6 @@
         <v>148.136135</v>
       </c>
       <c r="C55" s="2">
-        <f t="shared" si="0"/>
         <v>148136135</v>
       </c>
       <c r="D55" s="2">
@@ -1643,7 +1536,6 @@
         <v>250.026473255844</v>
       </c>
       <c r="F55" s="2">
-        <f t="shared" si="1"/>
         <v>250026473.255844</v>
       </c>
     </row>
@@ -1655,7 +1547,6 @@
         <v>148.378514</v>
       </c>
       <c r="C56" s="2">
-        <f t="shared" si="0"/>
         <v>148378514</v>
       </c>
       <c r="D56" s="2">
@@ -1665,7 +1556,6 @@
         <v>251.10916546512701</v>
       </c>
       <c r="F56" s="2">
-        <f t="shared" si="1"/>
         <v>251109165.46512702</v>
       </c>
     </row>
@@ -1677,7 +1567,6 @@
         <v>148.13269</v>
       </c>
       <c r="C57" s="2">
-        <f t="shared" si="0"/>
         <v>148132690</v>
       </c>
       <c r="D57" s="2">
@@ -1687,7 +1576,6 @@
         <v>252.16489362277201</v>
       </c>
       <c r="F57" s="2">
-        <f t="shared" si="1"/>
         <v>252164893.62277201</v>
       </c>
     </row>
@@ -1699,7 +1587,6 @@
         <v>148.68702200000001</v>
       </c>
       <c r="C58" s="2">
-        <f t="shared" si="0"/>
         <v>148687022</v>
       </c>
       <c r="D58" s="2">
@@ -1709,7 +1596,6 @@
         <v>253.19432925857501</v>
       </c>
       <c r="F58" s="2">
-        <f t="shared" si="1"/>
         <v>253194329.25857502</v>
       </c>
     </row>
@@ -1721,7 +1607,6 @@
         <v>151.29537500000001</v>
       </c>
       <c r="C59" s="2">
-        <f t="shared" si="0"/>
         <v>151295375</v>
       </c>
       <c r="D59" s="2">
@@ -1731,7 +1616,6 @@
         <v>254.198127178134</v>
       </c>
       <c r="F59" s="2">
-        <f t="shared" si="1"/>
         <v>254198127.17813399</v>
       </c>
     </row>
@@ -1743,7 +1627,6 @@
         <v>148.40563</v>
       </c>
       <c r="C60" s="2">
-        <f t="shared" si="0"/>
         <v>148405630</v>
       </c>
       <c r="D60" s="2">
@@ -1753,7 +1636,6 @@
         <v>255.17692587934999</v>
       </c>
       <c r="F60" s="2">
-        <f t="shared" si="1"/>
         <v>255176925.87935001</v>
       </c>
     </row>
@@ -1765,7 +1647,6 @@
         <v>150.11946800000001</v>
       </c>
       <c r="C61" s="2">
-        <f t="shared" si="0"/>
         <v>150119468</v>
       </c>
       <c r="D61" s="2">
@@ -1775,7 +1656,6 @@
         <v>256.13134795857098</v>
       </c>
       <c r="F61" s="2">
-        <f t="shared" si="1"/>
         <v>256131347.95857099</v>
       </c>
     </row>
@@ -1787,7 +1667,6 @@
         <v>153.465113</v>
       </c>
       <c r="C62" s="2">
-        <f t="shared" si="0"/>
         <v>153465113</v>
       </c>
       <c r="D62" s="2">
@@ -1797,7 +1676,6 @@
         <v>257.06200050660902</v>
       </c>
       <c r="F62" s="2">
-        <f t="shared" si="1"/>
         <v>257062000.50660902</v>
       </c>
     </row>
@@ -1809,7 +1687,6 @@
         <v>152.13494900000001</v>
       </c>
       <c r="C63" s="2">
-        <f t="shared" si="0"/>
         <v>152134949</v>
       </c>
       <c r="D63" s="2">
@@ -1819,7 +1696,6 @@
         <v>257.969475494905</v>
       </c>
       <c r="F63" s="2">
-        <f t="shared" si="1"/>
         <v>257969475.49490499</v>
       </c>
     </row>
@@ -1831,7 +1707,6 @@
         <v>153.30609100000001</v>
       </c>
       <c r="C64" s="2">
-        <f t="shared" si="0"/>
         <v>153306091</v>
       </c>
       <c r="D64" s="2">
@@ -1841,7 +1716,6 @@
         <v>258.85435015206798</v>
       </c>
       <c r="F64" s="2">
-        <f t="shared" si="1"/>
         <v>258854350.15206799</v>
       </c>
     </row>
@@ -1853,7 +1727,6 @@
         <v>152.643632</v>
       </c>
       <c r="C65" s="2">
-        <f t="shared" si="0"/>
         <v>152643632</v>
       </c>
       <c r="D65" s="2">
@@ -1863,7 +1736,6 @@
         <v>259.71718733104001</v>
       </c>
       <c r="F65" s="2">
-        <f t="shared" si="1"/>
         <v>259717187.33103999</v>
       </c>
     </row>
@@ -1875,7 +1747,6 @@
         <v>153.17791500000001</v>
       </c>
       <c r="C66" s="2">
-        <f t="shared" si="0"/>
         <v>153177915</v>
       </c>
       <c r="D66" s="2">
@@ -1885,7 +1756,6 @@
         <v>260.55853586711902</v>
       </c>
       <c r="F66" s="2">
-        <f t="shared" si="1"/>
         <v>260558535.86711901</v>
       </c>
     </row>
@@ -1897,7 +1767,6 @@
         <v>155.874741</v>
       </c>
       <c r="C67" s="2">
-        <f t="shared" ref="C67:C130" si="2">B67*1000000</f>
         <v>155874741</v>
       </c>
       <c r="D67" s="2">
@@ -1907,7 +1776,6 @@
         <v>261.37893092705798</v>
       </c>
       <c r="F67" s="2">
-        <f t="shared" ref="F67:F77" si="3">E67 * 1000000</f>
         <v>261378930.92705798</v>
       </c>
     </row>
@@ -1919,7 +1787,6 @@
         <v>153.54144700000001</v>
       </c>
       <c r="C68" s="2">
-        <f t="shared" si="2"/>
         <v>153541447</v>
       </c>
       <c r="D68" s="2">
@@ -1929,7 +1796,6 @@
         <v>262.17889434948199</v>
       </c>
       <c r="F68" s="2">
-        <f t="shared" si="3"/>
         <v>262178894.349482</v>
       </c>
     </row>
@@ -1941,7 +1807,6 @@
         <v>152.203822</v>
       </c>
       <c r="C69" s="2">
-        <f t="shared" si="2"/>
         <v>152203822</v>
       </c>
       <c r="D69" s="2">
@@ -1951,7 +1816,6 @@
         <v>262.95893497681601</v>
       </c>
       <c r="F69" s="2">
-        <f t="shared" si="3"/>
         <v>262958934.976816</v>
       </c>
     </row>
@@ -1963,7 +1827,6 @@
         <v>156.71191300000001</v>
       </c>
       <c r="C70" s="2">
-        <f t="shared" si="2"/>
         <v>156711913</v>
       </c>
       <c r="D70" s="2">
@@ -1973,7 +1836,6 @@
         <v>263.71954897895199</v>
       </c>
       <c r="F70" s="2">
-        <f t="shared" si="3"/>
         <v>263719548.97895199</v>
       </c>
     </row>
@@ -1985,7 +1847,6 @@
         <v>156.05484000000001</v>
       </c>
       <c r="C71" s="2">
-        <f t="shared" si="2"/>
         <v>156054840</v>
       </c>
       <c r="D71" s="2">
@@ -1995,7 +1856,6 @@
         <v>264.46122016884999</v>
       </c>
       <c r="F71" s="2">
-        <f t="shared" si="3"/>
         <v>264461220.16885</v>
       </c>
     </row>
@@ -2007,7 +1867,6 @@
         <v>160.76016300000001</v>
       </c>
       <c r="C72" s="2">
-        <f t="shared" si="2"/>
         <v>160760163</v>
       </c>
       <c r="D72" s="2">
@@ -2017,7 +1876,6 @@
         <v>265.18442031029002</v>
       </c>
       <c r="F72" s="2">
-        <f t="shared" si="3"/>
         <v>265184420.31029001</v>
       </c>
     </row>
@@ -2029,7 +1887,6 @@
         <v>158.339969</v>
       </c>
       <c r="C73" s="2">
-        <f t="shared" si="2"/>
         <v>158339969</v>
       </c>
       <c r="D73" s="2">
@@ -2039,7 +1896,6 @@
         <v>265.88960941794602</v>
       </c>
       <c r="F73" s="2">
-        <f t="shared" si="3"/>
         <v>265889609.41794601</v>
       </c>
     </row>
@@ -2051,7 +1907,6 @@
         <v>158.13064900000001</v>
       </c>
       <c r="C74" s="2">
-        <f t="shared" si="2"/>
         <v>158130649</v>
       </c>
       <c r="D74" s="2">
@@ -2061,7 +1916,6 @@
         <v>266.577236049997</v>
       </c>
       <c r="F74" s="2">
-        <f t="shared" si="3"/>
         <v>266577236.049997</v>
       </c>
     </row>
@@ -2073,7 +1927,6 @@
         <v>159.930599</v>
       </c>
       <c r="C75" s="2">
-        <f t="shared" si="2"/>
         <v>159930599</v>
       </c>
       <c r="D75" s="2">
@@ -2083,7 +1936,6 @@
         <v>267.24773759344401</v>
       </c>
       <c r="F75" s="2">
-        <f t="shared" si="3"/>
         <v>267247737.59344402</v>
       </c>
     </row>
@@ -2095,7 +1947,6 @@
         <v>161.42160999999999</v>
       </c>
       <c r="C76" s="2">
-        <f t="shared" si="2"/>
         <v>161421610</v>
       </c>
       <c r="D76" s="2">
@@ -2105,7 +1956,6 @@
         <v>267.90154054232602</v>
       </c>
       <c r="F76" s="2">
-        <f t="shared" si="3"/>
         <v>267901540.542326</v>
       </c>
     </row>
@@ -2117,7 +1967,6 @@
         <v>164.67221000000001</v>
       </c>
       <c r="C77" s="2">
-        <f t="shared" si="2"/>
         <v>164672210</v>
       </c>
       <c r="D77" s="2">
@@ -2127,7 +1976,6 @@
         <v>268.314906378302</v>
       </c>
       <c r="F77" s="2">
-        <f t="shared" si="3"/>
         <v>268314906.37830201</v>
       </c>
     </row>
@@ -2139,7 +1987,6 @@
         <v>161.340126</v>
       </c>
       <c r="C78" s="2">
-        <f t="shared" si="2"/>
         <v>161340126</v>
       </c>
       <c r="D78" s="2"/>
@@ -2154,7 +2001,6 @@
         <v>160.72067200000001</v>
       </c>
       <c r="C79" s="2">
-        <f t="shared" si="2"/>
         <v>160720672</v>
       </c>
       <c r="D79" s="2"/>
@@ -2169,7 +2015,6 @@
         <v>160.07450900000001</v>
       </c>
       <c r="C80" s="2">
-        <f t="shared" si="2"/>
         <v>160074509</v>
       </c>
       <c r="D80" s="2"/>
@@ -2184,7 +2029,6 @@
         <v>160.24757600000001</v>
       </c>
       <c r="C81" s="2">
-        <f t="shared" si="2"/>
         <v>160247576</v>
       </c>
       <c r="D81" s="2"/>
@@ -2199,7 +2043,6 @@
         <v>161.75825399999999</v>
       </c>
       <c r="C82" s="2">
-        <f t="shared" si="2"/>
         <v>161758254</v>
       </c>
       <c r="D82" s="2"/>
@@ -2214,7 +2057,6 @@
         <v>163.27151900000001</v>
       </c>
       <c r="C83" s="2">
-        <f t="shared" si="2"/>
         <v>163271519</v>
       </c>
       <c r="D83" s="2"/>
@@ -2229,7 +2071,6 @@
         <v>163.61400699999999</v>
       </c>
       <c r="C84" s="2">
-        <f t="shared" si="2"/>
         <v>163614007</v>
       </c>
       <c r="D84" s="2"/>
@@ -2244,7 +2085,6 @@
         <v>163.94525200000001</v>
       </c>
       <c r="C85" s="2">
-        <f t="shared" si="2"/>
         <v>163945252</v>
       </c>
       <c r="D85" s="2"/>
@@ -2259,7 +2099,6 @@
         <v>165.45426399999999</v>
       </c>
       <c r="C86" s="2">
-        <f t="shared" si="2"/>
         <v>165454264</v>
       </c>
       <c r="D86" s="2"/>
@@ -2274,7 +2113,6 @@
         <v>160.42569499999999</v>
       </c>
       <c r="C87" s="2">
-        <f t="shared" si="2"/>
         <v>160425695</v>
       </c>
       <c r="D87" s="2"/>
@@ -2289,7 +2127,6 @@
         <v>160.76705699999999</v>
       </c>
       <c r="C88" s="2">
-        <f t="shared" si="2"/>
         <v>160767057</v>
       </c>
       <c r="D88" s="2"/>
@@ -2304,7 +2141,6 @@
         <v>165.30052000000001</v>
       </c>
       <c r="C89" s="2">
-        <f t="shared" si="2"/>
         <v>165300520</v>
       </c>
       <c r="D89" s="2"/>
@@ -2319,7 +2155,6 @@
         <v>166.17330100000001</v>
       </c>
       <c r="C90" s="2">
-        <f t="shared" si="2"/>
         <v>166173301</v>
       </c>
       <c r="D90" s="2"/>
@@ -2334,7 +2169,6 @@
         <v>168.444467</v>
       </c>
       <c r="C91" s="2">
-        <f t="shared" si="2"/>
         <v>168444467</v>
       </c>
       <c r="D91" s="2"/>
@@ -2349,7 +2183,6 @@
         <v>169.51220799999999</v>
       </c>
       <c r="C92" s="2">
-        <f t="shared" si="2"/>
         <v>169512208</v>
       </c>
       <c r="D92" s="2"/>
@@ -2364,7 +2197,6 @@
         <v>166.64175399999999</v>
       </c>
       <c r="C93" s="2">
-        <f t="shared" si="2"/>
         <v>166641754</v>
       </c>
       <c r="D93" s="2"/>
@@ -2379,7 +2211,6 @@
         <v>167.45196200000001</v>
       </c>
       <c r="C94" s="2">
-        <f t="shared" si="2"/>
         <v>167451962</v>
       </c>
       <c r="D94" s="2"/>
@@ -2394,7 +2225,6 @@
         <v>165.22361100000001</v>
       </c>
       <c r="C95" s="2">
-        <f t="shared" si="2"/>
         <v>165223611</v>
       </c>
       <c r="D95" s="2"/>
@@ -2409,7 +2239,6 @@
         <v>169.364328</v>
       </c>
       <c r="C96" s="2">
-        <f t="shared" si="2"/>
         <v>169364328</v>
       </c>
       <c r="D96" s="2"/>
@@ -2424,7 +2253,6 @@
         <v>164.516672</v>
       </c>
       <c r="C97" s="2">
-        <f t="shared" si="2"/>
         <v>164516672</v>
       </c>
       <c r="D97" s="2"/>
@@ -2439,7 +2267,6 @@
         <v>168.27060800000001</v>
       </c>
       <c r="C98" s="2">
-        <f t="shared" si="2"/>
         <v>168270608</v>
       </c>
       <c r="D98" s="2"/>
@@ -2454,7 +2281,6 @@
         <v>171.02662699999999</v>
       </c>
       <c r="C99" s="2">
-        <f t="shared" si="2"/>
         <v>171026627</v>
       </c>
       <c r="D99" s="2"/>
@@ -2469,7 +2295,6 @@
         <v>165.63826800000001</v>
       </c>
       <c r="C100" s="2">
-        <f t="shared" si="2"/>
         <v>165638268</v>
       </c>
       <c r="D100" s="2"/>
@@ -2484,7 +2309,6 @@
         <v>170.017245</v>
       </c>
       <c r="C101" s="2">
-        <f t="shared" si="2"/>
         <v>170017245</v>
       </c>
       <c r="D101" s="2"/>
@@ -2499,7 +2323,6 @@
         <v>169.01082199999999</v>
       </c>
       <c r="C102" s="2">
-        <f t="shared" si="2"/>
         <v>169010822</v>
       </c>
       <c r="D102" s="2"/>
@@ -2514,7 +2337,6 @@
         <v>171.03614899999999</v>
       </c>
       <c r="C103" s="2">
-        <f t="shared" si="2"/>
         <v>171036149</v>
       </c>
       <c r="D103" s="2"/>
@@ -2529,7 +2351,6 @@
         <v>176.77350899999999</v>
       </c>
       <c r="C104" s="2">
-        <f t="shared" si="2"/>
         <v>176773509</v>
       </c>
       <c r="D104" s="2"/>
@@ -2544,7 +2365,6 @@
         <v>173.90312299999999</v>
       </c>
       <c r="C105" s="2">
-        <f t="shared" si="2"/>
         <v>173903123</v>
       </c>
       <c r="D105" s="2"/>
@@ -2559,7 +2379,6 @@
         <v>171.20874599999999</v>
       </c>
       <c r="C106" s="2">
-        <f t="shared" si="2"/>
         <v>171208746</v>
       </c>
       <c r="D106" s="2"/>
@@ -2574,7 +2393,6 @@
         <v>171.20759100000001</v>
       </c>
       <c r="C107" s="2">
-        <f t="shared" si="2"/>
         <v>171207591</v>
       </c>
       <c r="D107" s="2"/>
@@ -2589,7 +2407,6 @@
         <v>170.706007</v>
       </c>
       <c r="C108" s="2">
-        <f t="shared" si="2"/>
         <v>170706007</v>
       </c>
       <c r="D108" s="2"/>
@@ -2604,7 +2421,6 @@
         <v>172.39686399999999</v>
       </c>
       <c r="C109" s="2">
-        <f t="shared" si="2"/>
         <v>172396864</v>
       </c>
       <c r="D109" s="2"/>
@@ -2619,7 +2435,6 @@
         <v>178.134411</v>
       </c>
       <c r="C110" s="2">
-        <f t="shared" si="2"/>
         <v>178134411</v>
       </c>
       <c r="D110" s="2"/>
@@ -2634,7 +2449,6 @@
         <v>173.79262900000001</v>
       </c>
       <c r="C111" s="2">
-        <f t="shared" si="2"/>
         <v>173792629</v>
       </c>
       <c r="D111" s="2"/>
@@ -2649,7 +2463,6 @@
         <v>176.76446300000001</v>
       </c>
       <c r="C112" s="2">
-        <f t="shared" si="2"/>
         <v>176764463</v>
       </c>
       <c r="D112" s="2"/>
@@ -2664,7 +2477,6 @@
         <v>174.17057700000001</v>
       </c>
       <c r="C113" s="2">
-        <f t="shared" si="2"/>
         <v>174170577</v>
       </c>
       <c r="D113" s="2"/>
@@ -2679,7 +2491,6 @@
         <v>175.99131299999999</v>
       </c>
       <c r="C114" s="2">
-        <f t="shared" si="2"/>
         <v>175991313</v>
       </c>
       <c r="D114" s="2"/>
@@ -2694,7 +2505,6 @@
         <v>176.147257</v>
       </c>
       <c r="C115" s="2">
-        <f t="shared" si="2"/>
         <v>176147257</v>
       </c>
       <c r="D115" s="2"/>
@@ -2709,7 +2519,6 @@
         <v>177.30951999999999</v>
       </c>
       <c r="C116" s="2">
-        <f t="shared" si="2"/>
         <v>177309520</v>
       </c>
       <c r="D116" s="2"/>
@@ -2724,7 +2533,6 @@
         <v>178.29097100000001</v>
       </c>
       <c r="C117" s="2">
-        <f t="shared" si="2"/>
         <v>178290971</v>
       </c>
       <c r="D117" s="2"/>
@@ -2739,7 +2547,6 @@
         <v>178.68709999999999</v>
       </c>
       <c r="C118" s="2">
-        <f t="shared" si="2"/>
         <v>178687100</v>
       </c>
       <c r="D118" s="2"/>
@@ -2754,7 +2561,6 @@
         <v>182.937791</v>
       </c>
       <c r="C119" s="2">
-        <f t="shared" si="2"/>
         <v>182937791</v>
       </c>
       <c r="D119" s="2"/>
@@ -2769,7 +2575,6 @@
         <v>180.400564</v>
       </c>
       <c r="C120" s="2">
-        <f t="shared" si="2"/>
         <v>180400564</v>
       </c>
       <c r="D120" s="2"/>
@@ -2784,7 +2589,6 @@
         <v>177.52322899999999</v>
       </c>
       <c r="C121" s="2">
-        <f t="shared" si="2"/>
         <v>177523229</v>
       </c>
       <c r="D121" s="2"/>
@@ -2799,7 +2603,6 @@
         <v>178.37516099999999</v>
       </c>
       <c r="C122" s="2">
-        <f t="shared" si="2"/>
         <v>178375161</v>
       </c>
       <c r="D122" s="2"/>
@@ -2814,7 +2617,6 @@
         <v>180.232226</v>
       </c>
       <c r="C123" s="2">
-        <f t="shared" si="2"/>
         <v>180232226</v>
       </c>
       <c r="D123" s="2"/>
@@ -2829,7 +2631,6 @@
         <v>175.15429700000001</v>
       </c>
       <c r="C124" s="2">
-        <f t="shared" si="2"/>
         <v>175154297</v>
       </c>
       <c r="D124" s="2"/>
@@ -2844,7 +2645,6 @@
         <v>174.83727500000001</v>
       </c>
       <c r="C125" s="2">
-        <f t="shared" si="2"/>
         <v>174837275</v>
       </c>
       <c r="D125" s="2"/>
@@ -2859,7 +2659,6 @@
         <v>179.45714100000001</v>
       </c>
       <c r="C126" s="2">
-        <f t="shared" si="2"/>
         <v>179457141</v>
       </c>
       <c r="D126" s="2"/>
@@ -2874,7 +2673,6 @@
         <v>180.835578</v>
       </c>
       <c r="C127" s="2">
-        <f t="shared" si="2"/>
         <v>180835578</v>
       </c>
       <c r="D127" s="2"/>
@@ -2889,7 +2687,6 @@
         <v>181.68501499999999</v>
       </c>
       <c r="C128" s="2">
-        <f t="shared" si="2"/>
         <v>181685015</v>
       </c>
       <c r="D128" s="2"/>
@@ -2904,7 +2701,6 @@
         <v>179.484476</v>
       </c>
       <c r="C129" s="2">
-        <f t="shared" si="2"/>
         <v>179484476</v>
       </c>
       <c r="D129" s="2"/>
@@ -2919,7 +2715,6 @@
         <v>178.46749700000001</v>
       </c>
       <c r="C130" s="2">
-        <f t="shared" si="2"/>
         <v>178467497</v>
       </c>
       <c r="D130" s="2"/>
@@ -2934,7 +2729,6 @@
         <v>182.87589</v>
       </c>
       <c r="C131" s="2">
-        <f t="shared" ref="C131:C194" si="4">B131*1000000</f>
         <v>182875890</v>
       </c>
       <c r="D131" s="2"/>
@@ -2949,7 +2743,6 @@
         <v>182.71214800000001</v>
       </c>
       <c r="C132" s="2">
-        <f t="shared" si="4"/>
         <v>182712148</v>
       </c>
       <c r="D132" s="2"/>
@@ -2964,7 +2757,6 @@
         <v>180.68286699999999</v>
       </c>
       <c r="C133" s="2">
-        <f t="shared" si="4"/>
         <v>180682867</v>
       </c>
       <c r="D133" s="2"/>
@@ -2979,7 +2771,6 @@
         <v>185.03275099999999</v>
       </c>
       <c r="C134" s="2">
-        <f t="shared" si="4"/>
         <v>185032751</v>
       </c>
       <c r="D134" s="2"/>
@@ -2994,7 +2785,6 @@
         <v>185.3210861</v>
       </c>
       <c r="C135" s="2">
-        <f t="shared" si="4"/>
         <v>185321086.09999999</v>
       </c>
       <c r="D135" s="2"/>
@@ -3009,7 +2799,6 @@
         <v>183.66321780000001</v>
       </c>
       <c r="C136" s="2">
-        <f t="shared" si="4"/>
         <v>183663217.80000001</v>
       </c>
       <c r="D136" s="2"/>
@@ -3024,7 +2813,6 @@
         <v>185.4205317</v>
       </c>
       <c r="C137" s="2">
-        <f t="shared" si="4"/>
         <v>185420531.69999999</v>
       </c>
       <c r="D137" s="2"/>
@@ -3039,7 +2827,6 @@
         <v>189.8227406</v>
       </c>
       <c r="C138" s="2">
-        <f t="shared" si="4"/>
         <v>189822740.59999999</v>
       </c>
       <c r="D138" s="2"/>
@@ -3054,7 +2841,6 @@
         <v>193.6182287</v>
       </c>
       <c r="C139" s="2">
-        <f t="shared" si="4"/>
         <v>193618228.70000002</v>
       </c>
       <c r="D139" s="2"/>
@@ -3069,7 +2855,6 @@
         <v>195.76317130000001</v>
       </c>
       <c r="C140" s="2">
-        <f t="shared" si="4"/>
         <v>195763171.30000001</v>
       </c>
       <c r="D140" s="2"/>
@@ -3084,7 +2869,6 @@
         <v>198.76822770000001</v>
       </c>
       <c r="C141" s="2">
-        <f t="shared" si="4"/>
         <v>198768227.70000002</v>
       </c>
       <c r="D141" s="2"/>
@@ -3099,7 +2883,6 @@
         <v>195.37990300000001</v>
       </c>
       <c r="C142" s="2">
-        <f t="shared" si="4"/>
         <v>195379903</v>
       </c>
       <c r="D142" s="2"/>
@@ -3114,7 +2897,6 @@
         <v>195.7342525</v>
       </c>
       <c r="C143" s="2">
-        <f t="shared" si="4"/>
         <v>195734252.5</v>
       </c>
       <c r="D143" s="2"/>
@@ -3129,7 +2911,6 @@
         <v>202.05684360000001</v>
       </c>
       <c r="C144" s="2">
-        <f t="shared" si="4"/>
         <v>202056843.59999999</v>
       </c>
       <c r="D144" s="2"/>
@@ -3144,7 +2925,6 @@
         <v>199.7779079</v>
       </c>
       <c r="C145" s="2">
-        <f t="shared" si="4"/>
         <v>199777907.90000001</v>
       </c>
       <c r="D145" s="2"/>
@@ -3159,7 +2939,6 @@
         <v>202.2837624</v>
       </c>
       <c r="C146" s="2">
-        <f t="shared" si="4"/>
         <v>202283762.40000001</v>
       </c>
       <c r="D146" s="2"/>
@@ -3174,7 +2953,6 @@
         <v>201.389599</v>
       </c>
       <c r="C147" s="2">
-        <f t="shared" si="4"/>
         <v>201389599</v>
       </c>
       <c r="D147" s="2"/>
@@ -3189,7 +2967,6 @@
         <v>203.2838634</v>
       </c>
       <c r="C148" s="2">
-        <f t="shared" si="4"/>
         <v>203283863.40000001</v>
       </c>
       <c r="D148" s="2"/>
@@ -3204,7 +2981,6 @@
         <v>207.94872480000001</v>
       </c>
       <c r="C149" s="2">
-        <f t="shared" si="4"/>
         <v>207948724.80000001</v>
       </c>
       <c r="D149" s="2"/>
@@ -3219,7 +2995,6 @@
         <v>209.50394750000001</v>
       </c>
       <c r="C150" s="2">
-        <f t="shared" si="4"/>
         <v>209503947.5</v>
       </c>
       <c r="D150" s="2"/>
@@ -3234,7 +3009,6 @@
         <v>207.4486584</v>
       </c>
       <c r="C151" s="2">
-        <f t="shared" si="4"/>
         <v>207448658.40000001</v>
       </c>
       <c r="D151" s="2"/>
@@ -3249,7 +3023,6 @@
         <v>209.72392970000001</v>
       </c>
       <c r="C152" s="2">
-        <f t="shared" si="4"/>
         <v>209723929.70000002</v>
       </c>
       <c r="D152" s="2"/>
@@ -3264,7 +3037,6 @@
         <v>209.3602396</v>
       </c>
       <c r="C153" s="2">
-        <f t="shared" si="4"/>
         <v>209360239.59999999</v>
       </c>
       <c r="D153" s="2"/>
@@ -3279,7 +3051,6 @@
         <v>215.41102079999999</v>
       </c>
       <c r="C154" s="2">
-        <f t="shared" si="4"/>
         <v>215411020.79999998</v>
       </c>
       <c r="D154" s="2"/>
@@ -3294,7 +3065,6 @@
         <v>215.42597029999999</v>
       </c>
       <c r="C155" s="2">
-        <f t="shared" si="4"/>
         <v>215425970.29999998</v>
       </c>
       <c r="D155" s="2"/>
@@ -3309,7 +3079,6 @@
         <v>216.5045059</v>
       </c>
       <c r="C156" s="2">
-        <f t="shared" si="4"/>
         <v>216504505.90000001</v>
       </c>
       <c r="D156" s="2"/>
@@ -3324,7 +3093,6 @@
         <v>218.9251653</v>
       </c>
       <c r="C157" s="2">
-        <f t="shared" si="4"/>
         <v>218925165.30000001</v>
       </c>
       <c r="D157" s="2"/>
@@ -3339,7 +3107,6 @@
         <v>215.81134950000001</v>
       </c>
       <c r="C158" s="2">
-        <f t="shared" si="4"/>
         <v>215811349.5</v>
       </c>
       <c r="D158" s="2"/>
@@ -3354,7 +3121,6 @@
         <v>219.10706239999999</v>
       </c>
       <c r="C159" s="2">
-        <f t="shared" si="4"/>
         <v>219107062.39999998</v>
       </c>
       <c r="D159" s="2"/>
@@ -3369,7 +3135,6 @@
         <v>218.8839337</v>
       </c>
       <c r="C160" s="2">
-        <f t="shared" si="4"/>
         <v>218883933.69999999</v>
       </c>
       <c r="D160" s="2"/>
@@ -3384,7 +3149,6 @@
         <v>220.4285228</v>
       </c>
       <c r="C161" s="2">
-        <f t="shared" si="4"/>
         <v>220428522.79999998</v>
       </c>
       <c r="D161" s="2"/>
@@ -3399,7 +3163,6 @@
         <v>224.7007376</v>
       </c>
       <c r="C162" s="2">
-        <f t="shared" si="4"/>
         <v>224700737.59999999</v>
       </c>
       <c r="D162" s="2"/>
@@ -3414,7 +3177,6 @@
         <v>224.89172869999999</v>
       </c>
       <c r="C163" s="2">
-        <f t="shared" si="4"/>
         <v>224891728.69999999</v>
       </c>
       <c r="D163" s="2"/>
@@ -3429,7 +3191,6 @@
         <v>229.53530989999999</v>
       </c>
       <c r="C164" s="2">
-        <f t="shared" si="4"/>
         <v>229535309.89999998</v>
       </c>
       <c r="D164" s="2"/>
@@ -3444,7 +3205,6 @@
         <v>224.5384545</v>
       </c>
       <c r="C165" s="2">
-        <f t="shared" si="4"/>
         <v>224538454.5</v>
       </c>
       <c r="D165" s="2"/>
@@ -3459,7 +3219,6 @@
         <v>228.59658020000001</v>
       </c>
       <c r="C166" s="2">
-        <f t="shared" si="4"/>
         <v>228596580.20000002</v>
       </c>
       <c r="D166" s="2"/>
@@ -3474,7 +3233,6 @@
         <v>229.3115822</v>
       </c>
       <c r="C167" s="2">
-        <f t="shared" si="4"/>
         <v>229311582.20000002</v>
       </c>
       <c r="D167" s="2"/>
@@ -3489,7 +3247,6 @@
         <v>231.2452188</v>
       </c>
       <c r="C168" s="2">
-        <f t="shared" si="4"/>
         <v>231245218.80000001</v>
       </c>
       <c r="D168" s="2"/>
@@ -3504,7 +3261,6 @@
         <v>228.97179109999999</v>
       </c>
       <c r="C169" s="2">
-        <f t="shared" si="4"/>
         <v>228971791.09999999</v>
       </c>
       <c r="D169" s="2"/>
@@ -3519,7 +3275,6 @@
         <v>229.66548610000001</v>
       </c>
       <c r="C170" s="2">
-        <f t="shared" si="4"/>
         <v>229665486.10000002</v>
       </c>
       <c r="D170" s="2"/>
@@ -3534,7 +3289,6 @@
         <v>229.19690199999999</v>
       </c>
       <c r="C171" s="2">
-        <f t="shared" si="4"/>
         <v>229196902</v>
       </c>
       <c r="D171" s="2"/>
@@ -3549,7 +3303,6 @@
         <v>232.87829210000001</v>
       </c>
       <c r="C172" s="2">
-        <f t="shared" si="4"/>
         <v>232878292.10000002</v>
       </c>
       <c r="D172" s="2"/>
@@ -3564,7 +3317,6 @@
         <v>230.09052080000001</v>
       </c>
       <c r="C173" s="2">
-        <f t="shared" si="4"/>
         <v>230090520.80000001</v>
       </c>
       <c r="D173" s="2"/>
@@ -3579,7 +3331,6 @@
         <v>235.46753469999999</v>
       </c>
       <c r="C174" s="2">
-        <f t="shared" si="4"/>
         <v>235467534.69999999</v>
       </c>
       <c r="D174" s="2"/>
@@ -3594,7 +3345,6 @@
         <v>231.43057429999999</v>
       </c>
       <c r="C175" s="2">
-        <f t="shared" si="4"/>
         <v>231430574.29999998</v>
       </c>
       <c r="D175" s="2"/>
@@ -3609,7 +3359,6 @@
         <v>239.13945050000001</v>
       </c>
       <c r="C176" s="2">
-        <f t="shared" si="4"/>
         <v>239139450.5</v>
       </c>
       <c r="D176" s="2"/>
@@ -3624,7 +3373,6 @@
         <v>242.67627229999999</v>
       </c>
       <c r="C177" s="2">
-        <f t="shared" si="4"/>
         <v>242676272.29999998</v>
       </c>
       <c r="D177" s="2"/>
@@ -3639,7 +3387,6 @@
         <v>235.7716327</v>
       </c>
       <c r="C178" s="2">
-        <f t="shared" si="4"/>
         <v>235771632.69999999</v>
       </c>
       <c r="D178" s="2"/>
@@ -3654,7 +3401,6 @@
         <v>235.0862515</v>
       </c>
       <c r="C179" s="2">
-        <f t="shared" si="4"/>
         <v>235086251.5</v>
       </c>
       <c r="D179" s="2"/>
@@ -3669,7 +3415,6 @@
         <v>238.99375839999999</v>
       </c>
       <c r="C180" s="2">
-        <f t="shared" si="4"/>
         <v>238993758.39999998</v>
       </c>
       <c r="D180" s="2"/>
@@ -3684,7 +3429,6 @@
         <v>240.5684861</v>
       </c>
       <c r="C181" s="2">
-        <f t="shared" si="4"/>
         <v>240568486.09999999</v>
       </c>
       <c r="D181" s="2"/>
@@ -3699,7 +3443,6 @@
         <v>242.48889410000001</v>
       </c>
       <c r="C182" s="2">
-        <f t="shared" si="4"/>
         <v>242488894.10000002</v>
       </c>
       <c r="D182" s="2"/>
@@ -3714,7 +3457,6 @@
         <v>242.3159584</v>
       </c>
       <c r="C183" s="2">
-        <f t="shared" si="4"/>
         <v>242315958.40000001</v>
       </c>
       <c r="D183" s="2"/>
@@ -3729,7 +3471,6 @@
         <v>245.87407920000001</v>
       </c>
       <c r="C184" s="2">
-        <f t="shared" si="4"/>
         <v>245874079.20000002</v>
       </c>
       <c r="D184" s="2"/>
@@ -3744,7 +3485,6 @@
         <v>246.2299337</v>
       </c>
       <c r="C185" s="2">
-        <f t="shared" si="4"/>
         <v>246229933.70000002</v>
       </c>
       <c r="D185" s="2"/>
@@ -3759,7 +3499,6 @@
         <v>243.35366239999999</v>
       </c>
       <c r="C186" s="2">
-        <f t="shared" si="4"/>
         <v>243353662.39999998</v>
       </c>
       <c r="D186" s="2"/>
@@ -3774,7 +3513,6 @@
         <v>251.15579109999999</v>
       </c>
       <c r="C187" s="2">
-        <f t="shared" si="4"/>
         <v>251155791.09999999</v>
       </c>
       <c r="D187" s="2"/>
@@ -3789,7 +3527,6 @@
         <v>250.79926040000001</v>
       </c>
       <c r="C188" s="2">
-        <f t="shared" si="4"/>
         <v>250799260.40000001</v>
       </c>
       <c r="D188" s="2"/>
@@ -3804,7 +3541,6 @@
         <v>249.5578079</v>
       </c>
       <c r="C189" s="2">
-        <f t="shared" si="4"/>
         <v>249557807.90000001</v>
       </c>
       <c r="D189" s="2"/>
@@ -3819,7 +3555,6 @@
         <v>249.28788320000001</v>
       </c>
       <c r="C190" s="2">
-        <f t="shared" si="4"/>
         <v>249287883.20000002</v>
       </c>
       <c r="D190" s="2"/>
@@ -3834,7 +3569,6 @@
         <v>244.5096178</v>
       </c>
       <c r="C191" s="2">
-        <f t="shared" si="4"/>
         <v>244509617.80000001</v>
       </c>
       <c r="D191" s="2"/>
@@ -3849,7 +3583,6 @@
         <v>244.36358509999999</v>
       </c>
       <c r="C192" s="2">
-        <f t="shared" si="4"/>
         <v>244363585.09999999</v>
       </c>
       <c r="D192" s="2"/>
@@ -3864,7 +3597,6 @@
         <v>251.2534416</v>
       </c>
       <c r="C193" s="2">
-        <f t="shared" si="4"/>
         <v>251253441.59999999</v>
       </c>
       <c r="D193" s="2"/>
@@ -3879,7 +3611,6 @@
         <v>249.9959752</v>
       </c>
       <c r="C194" s="2">
-        <f t="shared" si="4"/>
         <v>249995975.20000002</v>
       </c>
       <c r="D194" s="2"/>
@@ -3894,7 +3625,6 @@
         <v>254.58261189999999</v>
       </c>
       <c r="C195" s="2">
-        <f t="shared" ref="C195:C222" si="5">B195*1000000</f>
         <v>254582611.89999998</v>
       </c>
       <c r="D195" s="2"/>
@@ -3909,7 +3639,6 @@
         <v>256.37541979999997</v>
       </c>
       <c r="C196" s="2">
-        <f t="shared" si="5"/>
         <v>256375419.79999998</v>
       </c>
       <c r="D196" s="2"/>
@@ -3924,7 +3653,6 @@
         <v>252.4573723</v>
       </c>
       <c r="C197" s="2">
-        <f t="shared" si="5"/>
         <v>252457372.30000001</v>
       </c>
       <c r="D197" s="2"/>
@@ -3939,7 +3667,6 @@
         <v>251.647796</v>
       </c>
       <c r="C198" s="2">
-        <f t="shared" si="5"/>
         <v>251647796</v>
       </c>
       <c r="D198" s="2"/>
@@ -3954,7 +3681,6 @@
         <v>251.86248509999999</v>
       </c>
       <c r="C199" s="2">
-        <f t="shared" si="5"/>
         <v>251862485.09999999</v>
       </c>
       <c r="D199" s="2"/>
@@ -3969,7 +3695,6 @@
         <v>254.31562869999999</v>
       </c>
       <c r="C200" s="2">
-        <f t="shared" si="5"/>
         <v>254315628.69999999</v>
       </c>
       <c r="D200" s="2"/>
@@ -3984,7 +3709,6 @@
         <v>254.44695150000001</v>
       </c>
       <c r="C201" s="2">
-        <f t="shared" si="5"/>
         <v>254446951.5</v>
       </c>
       <c r="D201" s="2"/>
@@ -3999,7 +3723,6 @@
         <v>259.43990989999998</v>
       </c>
       <c r="C202" s="2">
-        <f t="shared" si="5"/>
         <v>259439909.89999998</v>
       </c>
       <c r="D202" s="2"/>
@@ -4014,7 +3737,6 @@
         <v>256.32305539999999</v>
       </c>
       <c r="C203" s="2">
-        <f t="shared" si="5"/>
         <v>256323055.39999998</v>
       </c>
       <c r="D203" s="2"/>
@@ -4029,7 +3751,6 @@
         <v>258.35650299999998</v>
       </c>
       <c r="C204" s="2">
-        <f t="shared" si="5"/>
         <v>258356502.99999997</v>
       </c>
       <c r="D204" s="2"/>
@@ -4044,7 +3765,6 @@
         <v>258.89724849999999</v>
       </c>
       <c r="C205" s="2">
-        <f t="shared" si="5"/>
         <v>258897248.5</v>
       </c>
       <c r="D205" s="2"/>
@@ -4059,7 +3779,6 @@
         <v>256.71495049999999</v>
       </c>
       <c r="C206" s="2">
-        <f t="shared" si="5"/>
         <v>256714950.5</v>
       </c>
       <c r="D206" s="2"/>
@@ -4074,7 +3793,6 @@
         <v>259.83112970000002</v>
       </c>
       <c r="C207" s="2">
-        <f t="shared" si="5"/>
         <v>259831129.70000002</v>
       </c>
       <c r="D207" s="2"/>
@@ -4089,7 +3807,6 @@
         <v>263.03386440000003</v>
       </c>
       <c r="C208" s="2">
-        <f t="shared" si="5"/>
         <v>263033864.40000004</v>
       </c>
       <c r="D208" s="2"/>
@@ -4104,7 +3821,6 @@
         <v>256.25232870000002</v>
       </c>
       <c r="C209" s="2">
-        <f t="shared" si="5"/>
         <v>256252328.70000002</v>
       </c>
       <c r="D209" s="2"/>
@@ -4119,7 +3835,6 @@
         <v>264.34059500000001</v>
       </c>
       <c r="C210" s="2">
-        <f t="shared" si="5"/>
         <v>264340595</v>
       </c>
       <c r="D210" s="2"/>
@@ -4134,7 +3849,6 @@
         <v>257.26375940000003</v>
       </c>
       <c r="C211" s="2">
-        <f t="shared" si="5"/>
         <v>257263759.40000004</v>
       </c>
       <c r="D211" s="2"/>
@@ -4149,7 +3863,6 @@
         <v>260.89761290000001</v>
       </c>
       <c r="C212" s="2">
-        <f t="shared" si="5"/>
         <v>260897612.90000001</v>
       </c>
       <c r="D212" s="2"/>
@@ -4164,7 +3877,6 @@
         <v>263.5530574</v>
       </c>
       <c r="C213" s="2">
-        <f t="shared" si="5"/>
         <v>263553057.40000001</v>
       </c>
       <c r="D213" s="2"/>
@@ -4179,7 +3891,6 @@
         <v>260.59380199999998</v>
       </c>
       <c r="C214" s="2">
-        <f t="shared" si="5"/>
         <v>260593801.99999997</v>
       </c>
       <c r="D214" s="2"/>
@@ -4194,7 +3905,6 @@
         <v>268.21580790000002</v>
       </c>
       <c r="C215" s="2">
-        <f t="shared" si="5"/>
         <v>268215807.90000001</v>
       </c>
       <c r="D215" s="2"/>
@@ -4209,7 +3919,6 @@
         <v>261.54490500000003</v>
       </c>
       <c r="C216" s="2">
-        <f t="shared" si="5"/>
         <v>261544905.00000003</v>
       </c>
       <c r="D216" s="2"/>
@@ -4224,7 +3933,6 @@
         <v>268.14635149999998</v>
       </c>
       <c r="C217" s="2">
-        <f t="shared" si="5"/>
         <v>268146351.49999997</v>
       </c>
       <c r="D217" s="2"/>
@@ -4239,7 +3947,6 @@
         <v>266.96679010000003</v>
       </c>
       <c r="C218" s="2">
-        <f t="shared" si="5"/>
         <v>266966790.10000002</v>
       </c>
       <c r="D218" s="2"/>
@@ -4254,7 +3961,6 @@
         <v>263.88594460000002</v>
       </c>
       <c r="C219" s="2">
-        <f t="shared" si="5"/>
         <v>263885944.60000002</v>
       </c>
       <c r="D219" s="2"/>
@@ -4269,7 +3975,6 @@
         <v>272.21375640000002</v>
       </c>
       <c r="C220" s="2">
-        <f t="shared" si="5"/>
         <v>272213756.40000004</v>
       </c>
       <c r="D220" s="2"/>
@@ -4284,7 +3989,6 @@
         <v>267.06220589999998</v>
       </c>
       <c r="C221" s="2">
-        <f t="shared" si="5"/>
         <v>267062205.89999998</v>
       </c>
       <c r="D221" s="2"/>
@@ -4299,7 +4003,6 @@
         <v>275.8836574</v>
       </c>
       <c r="C222" s="2">
-        <f t="shared" si="5"/>
         <v>275883657.39999998</v>
       </c>
       <c r="D222" s="2"/>
@@ -5032,7 +4735,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{656056AA-6B5F-457D-BEB2-CED97B73704C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
